--- a/URINELOT1.xlsx
+++ b/URINELOT1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y119"/>
+  <dimension ref="A1:X121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,107 +451,102 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Escherichia coli_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Klebsiella pneumoniae_x</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Pseudomonas aeruginosa_x</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Acinetobacter baumannii_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Proteus mirabilis_x</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
+          <t>Enterococcus faecalis_x</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus aureus</t>
+          <t>Staphylococcus aureus_x</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus</t>
+          <t>Staphylococcus saprophyticus_x</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Sterile_x</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>UHID</t>
+          <t>AIIMS Result culture</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>AIIMS Result culture</t>
+          <t>cleanAIIMS</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>cleanAIIMS</t>
+          <t>Escherichia coli_y</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
+          <t>Klebsiella pneumoniae_y</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
+          <t>Pseudomonas aeruginosa_y</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa</t>
+          <t>Acinetobacter baumannii_y</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii</t>
+          <t>Proteus mirabilis_y</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Proteus mirabilis</t>
+          <t>Enterococcus faecalis_y</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
+          <t>Staphylococcus aureus_y</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus aureus</t>
+          <t>Staphylococcus saprophyticus_y</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Sterile</t>
+          <t>Sterile_y</t>
         </is>
       </c>
     </row>
@@ -599,19 +594,19 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="n">
-        <v>20220065432</v>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
           <t>ENTEROCOCCUS FAECALIS</t>
         </is>
       </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
@@ -625,24 +620,21 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>20230125389</v>
@@ -684,21 +676,21 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
-      <c r="N3" t="n">
-        <v>20230125389</v>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>E.coli</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -719,15 +711,12 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>20180022685</v>
@@ -769,18 +758,18 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="N4" t="n">
-        <v>20180022685</v>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>CONTAMINATION</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>CONTAMINATION</t>
-        </is>
+      <c r="P4" t="n">
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -804,15 +793,12 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>20240012395</v>
@@ -854,21 +840,21 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
-      <c r="N5" t="n">
-        <v>20240012395</v>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>E.coli</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -889,15 +875,12 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>20220166372</v>
@@ -919,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -939,24 +922,24 @@
       <c r="M6" t="n">
         <v>0</v>
       </c>
-      <c r="N6" t="n">
-        <v>20220166372</v>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>E.coli &amp; Pseudomnas</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>E.coli &amp; Pseudomnas</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>E COLI &amp; PSEUDOMNAS</t>
         </is>
       </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -974,15 +957,12 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>20230149608</v>
@@ -1004,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1024,21 +1004,21 @@
       <c r="M7" t="n">
         <v>0</v>
       </c>
-      <c r="N7" t="n">
-        <v>20230149608</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>E.coli,A.Baumini</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>E.coli,A.Baumini</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>E COLI,A BAUMINI</t>
         </is>
       </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1059,15 +1039,12 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>20240016829</v>
@@ -1109,18 +1086,18 @@
       <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" t="n">
-        <v>20240016829</v>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1144,15 +1121,12 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>20230179067</v>
@@ -1194,18 +1168,18 @@
       <c r="M9" t="n">
         <v>0</v>
       </c>
-      <c r="N9" t="n">
-        <v>20230179067</v>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1229,15 +1203,12 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>20180188108</v>
@@ -1279,18 +1250,18 @@
       <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="N10" t="n">
-        <v>20180188108</v>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1314,15 +1285,12 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>20230141608</v>
@@ -1364,19 +1332,19 @@
       <c r="M11" t="n">
         <v>0</v>
       </c>
-      <c r="N11" t="n">
-        <v>20230141608</v>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
@@ -1399,15 +1367,12 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>20240020494</v>
@@ -1449,18 +1414,18 @@
       <c r="M12" t="n">
         <v>0</v>
       </c>
-      <c r="N12" t="n">
-        <v>20240020494</v>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1484,15 +1449,12 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>20240020519</v>
@@ -1534,21 +1496,21 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
-      <c r="N13" t="n">
-        <v>20240020519</v>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>E.Coli</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>E.Coli</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1569,15 +1531,12 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>20240015483</v>
@@ -1619,24 +1578,24 @@
       <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="N14" t="n">
-        <v>20240015483</v>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>E.coli &amp; Klebsiella pneumonia</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>E.coli &amp; Klebsiella pneumonia</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
           <t>E COLI &amp; KLEBSIELLA PNEUMONIA</t>
         </is>
       </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="n">
         <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1654,15 +1613,12 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>20240001249</v>
@@ -1704,18 +1660,18 @@
       <c r="M15" t="n">
         <v>0</v>
       </c>
-      <c r="N15" t="n">
-        <v>20240001249</v>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1739,15 +1695,12 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>20210094336</v>
@@ -1789,18 +1742,18 @@
       <c r="M16" t="n">
         <v>0</v>
       </c>
-      <c r="N16" t="n">
-        <v>20210094336</v>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1824,15 +1777,12 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>20240006140</v>
@@ -1874,18 +1824,18 @@
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>20240006140</v>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1909,15 +1859,12 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>20240020436</v>
@@ -1959,18 +1906,18 @@
       <c r="M18" t="n">
         <v>0</v>
       </c>
-      <c r="N18" t="n">
-        <v>20240020436</v>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -1994,15 +1941,12 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>20240022523</v>
@@ -2044,18 +1988,18 @@
       <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="N19" t="n">
-        <v>20240022523</v>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2079,15 +2023,12 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>20240022502</v>
@@ -2129,21 +2070,21 @@
       <c r="M20" t="n">
         <v>0</v>
       </c>
-      <c r="N20" t="n">
-        <v>20240022502</v>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>E. Coli</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2164,15 +2105,12 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>20220064259</v>
@@ -2214,18 +2152,18 @@
       <c r="M21" t="n">
         <v>0</v>
       </c>
-      <c r="N21" t="n">
-        <v>20220064259</v>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2249,15 +2187,12 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>20240019044</v>
@@ -2299,19 +2234,19 @@
       <c r="M22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" t="n">
-        <v>20240019044</v>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Candida spp.</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>Candida spp.</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
           <t>CANDIDA SPP</t>
         </is>
       </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
@@ -2334,15 +2269,12 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>20240024003</v>
@@ -2384,18 +2316,18 @@
       <c r="M23" t="n">
         <v>0</v>
       </c>
-      <c r="N23" t="n">
-        <v>20240024003</v>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2419,15 +2351,12 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>20240012256</v>
@@ -2469,18 +2398,18 @@
       <c r="M24" t="n">
         <v>0</v>
       </c>
-      <c r="N24" t="n">
-        <v>20240012256</v>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2504,15 +2433,12 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>20210046443</v>
@@ -2554,18 +2480,18 @@
       <c r="M25" t="n">
         <v>0</v>
       </c>
-      <c r="N25" t="n">
-        <v>20210046443</v>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2589,15 +2515,12 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>20220153472</v>
@@ -2639,18 +2562,18 @@
       <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="N26" t="n">
-        <v>20220153472</v>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2674,15 +2597,12 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>20240024158</v>
@@ -2724,19 +2644,19 @@
       <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="N27" t="n">
-        <v>20240024158</v>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
@@ -2759,15 +2679,12 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>20220088296</v>
@@ -2809,21 +2726,21 @@
       <c r="M28" t="n">
         <v>0</v>
       </c>
-      <c r="N28" t="n">
-        <v>20220088296</v>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>E. Coli</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2844,15 +2761,12 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>20220064546</v>
@@ -2894,18 +2808,18 @@
       <c r="M29" t="n">
         <v>0</v>
       </c>
-      <c r="N29" t="n">
-        <v>20220064546</v>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -2929,15 +2843,12 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>20210126376</v>
@@ -2979,24 +2890,24 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="n">
-        <v>20210126376</v>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Klebsiella pneumoniae</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
           <t>KLEBSIELLA PNEUMONIAE</t>
         </is>
       </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3014,15 +2925,12 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>20240012094</v>
@@ -3064,21 +2972,21 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="n">
-        <v>20240012094</v>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>E. Coli</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3099,15 +3007,12 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>20240027303</v>
@@ -3149,18 +3054,18 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="n">
-        <v>20240027303</v>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3184,15 +3089,12 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>20240002618</v>
@@ -3234,18 +3136,18 @@
       <c r="M33" t="n">
         <v>0</v>
       </c>
-      <c r="N33" t="n">
-        <v>20240002618</v>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3269,15 +3171,12 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>20240023202</v>
@@ -3319,18 +3218,18 @@
       <c r="M34" t="n">
         <v>0</v>
       </c>
-      <c r="N34" t="n">
-        <v>20240023202</v>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3354,15 +3253,12 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>20240027383</v>
@@ -3404,19 +3300,19 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
-      <c r="N35" t="n">
-        <v>20240027383</v>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
@@ -3439,15 +3335,12 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>20240015339</v>
@@ -3489,18 +3382,18 @@
       <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="N36" t="n">
-        <v>20240015339</v>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3524,15 +3417,12 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>20240029036</v>
@@ -3574,18 +3464,18 @@
       <c r="M37" t="n">
         <v>0</v>
       </c>
-      <c r="N37" t="n">
-        <v>20240029036</v>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3609,15 +3499,12 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>20240028839</v>
@@ -3659,18 +3546,18 @@
       <c r="M38" t="n">
         <v>0</v>
       </c>
-      <c r="N38" t="n">
-        <v>20240028839</v>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3694,15 +3581,12 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>20240025209</v>
@@ -3744,18 +3628,18 @@
       <c r="M39" t="n">
         <v>0</v>
       </c>
-      <c r="N39" t="n">
-        <v>20240025209</v>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3779,15 +3663,12 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>20240028100</v>
@@ -3829,18 +3710,18 @@
       <c r="M40" t="n">
         <v>0</v>
       </c>
-      <c r="N40" t="n">
-        <v>20240028100</v>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3864,15 +3745,12 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>20220083756</v>
@@ -3914,18 +3792,18 @@
       <c r="M41" t="n">
         <v>0</v>
       </c>
-      <c r="N41" t="n">
-        <v>20220083756</v>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -3949,15 +3827,12 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>20240030957</v>
@@ -3999,18 +3874,18 @@
       <c r="M42" t="n">
         <v>0</v>
       </c>
-      <c r="N42" t="n">
-        <v>20240030957</v>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4034,15 +3909,12 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>20230158280</v>
@@ -4084,19 +3956,19 @@
       <c r="M43" t="n">
         <v>0</v>
       </c>
-      <c r="N43" t="n">
-        <v>20230158280</v>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
           <t>ENTEROCOCCUS FAECALIS</t>
         </is>
       </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
@@ -4110,24 +3982,21 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>20240012274</v>
@@ -4169,21 +4038,21 @@
       <c r="M44" t="n">
         <v>0</v>
       </c>
-      <c r="N44" t="n">
-        <v>20240012274</v>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>E. Coli</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4204,15 +4073,12 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>20240029225</v>
@@ -4254,18 +4120,18 @@
       <c r="M45" t="n">
         <v>0</v>
       </c>
-      <c r="N45" t="n">
-        <v>20240029225</v>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>sterile</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>sterile</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4289,15 +4155,12 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>20240032359</v>
@@ -4339,21 +4202,21 @@
       <c r="M46" t="n">
         <v>0</v>
       </c>
-      <c r="N46" t="n">
-        <v>20240032359</v>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>E. Coli</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>E. Coli</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
       <c r="Q46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4374,15 +4237,12 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>20240002772</v>
@@ -4424,19 +4284,19 @@
       <c r="M47" t="n">
         <v>0</v>
       </c>
-      <c r="N47" t="n">
-        <v>20240002772</v>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
           <t>ENTEROCOCCUS FAECALIS</t>
         </is>
       </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
@@ -4450,24 +4310,21 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
       </c>
       <c r="X47" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>20240030597</v>
@@ -4509,18 +4366,18 @@
       <c r="M48" t="n">
         <v>0</v>
       </c>
-      <c r="N48" t="n">
-        <v>20240030597</v>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4544,15 +4401,12 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>20240030258</v>
@@ -4594,19 +4448,19 @@
       <c r="M49" t="n">
         <v>0</v>
       </c>
-      <c r="N49" t="n">
-        <v>20240030258</v>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
@@ -4629,15 +4483,12 @@
         <v>0</v>
       </c>
       <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>20230083087</v>
@@ -4679,19 +4530,19 @@
       <c r="M50" t="n">
         <v>0</v>
       </c>
-      <c r="N50" t="n">
-        <v>20230083087</v>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis &gt;105CFU/ml)</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis &gt;105CFU/ml)</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
           <t>ENTEROCOCCUS FAECALIS &gt;105CFU/ML)</t>
         </is>
       </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
@@ -4705,24 +4556,21 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>20240039022</v>
@@ -4764,18 +4612,18 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="n">
-        <v>20240039022</v>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4799,15 +4647,12 @@
         <v>0</v>
       </c>
       <c r="X51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>20240037502</v>
@@ -4849,19 +4694,19 @@
       <c r="M52" t="n">
         <v>0</v>
       </c>
-      <c r="N52" t="n">
-        <v>20240037502</v>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
       <c r="Q52" t="n">
         <v>0</v>
       </c>
@@ -4884,15 +4729,12 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>20240032128</v>
@@ -4934,24 +4776,24 @@
       <c r="M53" t="n">
         <v>0</v>
       </c>
-      <c r="N53" t="n">
-        <v>20240032128</v>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Pseudomonas aeuroginosa</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>Pseudomonas aeuroginosa</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
           <t>PSEUDOMONAS AEUROGINOSA</t>
         </is>
       </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
       <c r="Q53" t="n">
         <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4969,15 +4811,12 @@
         <v>0</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>20190007174</v>
@@ -5019,18 +4858,18 @@
       <c r="M54" t="n">
         <v>0</v>
       </c>
-      <c r="N54" t="n">
-        <v>20190007174</v>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -5054,15 +4893,12 @@
         <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>20240051938</v>
@@ -5104,21 +4940,21 @@
       <c r="M55" t="n">
         <v>0</v>
       </c>
-      <c r="N55" t="n">
-        <v>20240051938</v>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>E.coli</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -5139,15 +4975,12 @@
         <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>20240034567</v>
@@ -5189,19 +5022,19 @@
       <c r="M56" t="n">
         <v>0</v>
       </c>
-      <c r="N56" t="n">
-        <v>20240034567</v>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Insignificant growth</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Insignificant growth</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
           <t>INSIGNIFICANT GROWTH</t>
         </is>
       </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
       <c r="Q56" t="n">
         <v>0</v>
       </c>
@@ -5224,15 +5057,12 @@
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>20240060316</v>
@@ -5274,19 +5104,19 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
-      <c r="N57" t="n">
-        <v>20240060316</v>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
       <c r="Q57" t="n">
         <v>0</v>
       </c>
@@ -5309,15 +5139,12 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>20240048714</v>
@@ -5359,21 +5186,21 @@
       <c r="M58" t="n">
         <v>0</v>
       </c>
-      <c r="N58" t="n">
-        <v>20240048714</v>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>E.coli</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
@@ -5394,15 +5221,12 @@
         <v>0</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>20230023891</v>
@@ -5444,19 +5268,19 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
-      <c r="N59" t="n">
-        <v>20230023891</v>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
@@ -5479,15 +5303,12 @@
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>20180142185</v>
@@ -5529,18 +5350,18 @@
       <c r="M60" t="n">
         <v>0</v>
       </c>
-      <c r="N60" t="n">
-        <v>20180142185</v>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -5564,15 +5385,12 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>20240058395</v>
@@ -5614,21 +5432,21 @@
       <c r="M61" t="n">
         <v>0</v>
       </c>
-      <c r="N61" t="n">
-        <v>20240058395</v>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>E.coli</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>E.coli</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
           <t>E COLI</t>
         </is>
       </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -5649,15 +5467,12 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>20200075595</v>
@@ -5699,19 +5514,19 @@
       <c r="M62" t="n">
         <v>0</v>
       </c>
-      <c r="N62" t="n">
-        <v>20200075595</v>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Enterococcus faecalis</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
           <t>ENTEROCOCCUS FAECALIS</t>
         </is>
       </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
@@ -5725,24 +5540,21 @@
         <v>0</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
       </c>
       <c r="X62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>20230040481</v>
@@ -5784,19 +5596,19 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
-      <c r="N63" t="n">
-        <v>20230040481</v>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
@@ -5819,15 +5631,12 @@
         <v>0</v>
       </c>
       <c r="X63" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>20240062455</v>
@@ -5869,18 +5678,18 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
-      <c r="N64" t="n">
-        <v>20240062455</v>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5904,15 +5713,12 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>20240062254</v>
@@ -5954,18 +5760,18 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
-      <c r="N65" t="n">
-        <v>20240062254</v>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -5989,15 +5795,12 @@
         <v>0</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>20240048215</v>
@@ -6039,19 +5842,19 @@
       <c r="M66" t="n">
         <v>0</v>
       </c>
-      <c r="N66" t="n">
-        <v>20240048215</v>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>contamination</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>contamination</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
           <t>CONTAMINATION</t>
         </is>
       </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
@@ -6074,15 +5877,12 @@
         <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>20240060273</v>
@@ -6124,19 +5924,19 @@
       <c r="M67" t="n">
         <v>0</v>
       </c>
-      <c r="N67" t="n">
-        <v>20240060273</v>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>klebsiella, E.coli</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>klebsiella, E.coli</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
           <t>KLEBSIELLA, E COLI</t>
         </is>
       </c>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
       <c r="Q67" t="n">
         <v>1</v>
       </c>
@@ -6159,15 +5959,12 @@
         <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>20240054804</v>
@@ -6209,18 +6006,18 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
-      <c r="N68" t="n">
-        <v>20240054804</v>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6244,15 +6041,12 @@
         <v>0</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>20240051976</v>
@@ -6294,18 +6088,18 @@
       <c r="M69" t="n">
         <v>0</v>
       </c>
-      <c r="N69" t="n">
-        <v>20240051976</v>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6329,15 +6123,12 @@
         <v>0</v>
       </c>
       <c r="X69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>20240068214</v>
@@ -6379,18 +6170,18 @@
       <c r="M70" t="n">
         <v>0</v>
       </c>
-      <c r="N70" t="n">
-        <v>20240068214</v>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6414,68 +6205,65 @@
         <v>0</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>20240068214</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>E. Faecalis</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>E FAECALIS</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="n">
-        <v>20240068214</v>
-      </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6499,18 +6287,15 @@
         <v>0</v>
       </c>
       <c r="X71" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20240066137</v>
+        <v>20240068214</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -6549,18 +6334,18 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
-      <c r="N72" t="n">
-        <v>20240066137</v>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6584,18 +6369,15 @@
         <v>0</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20240069492</v>
+        <v>20240068214</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -6634,18 +6416,18 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
-      <c r="N73" t="n">
-        <v>20240069492</v>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6669,18 +6451,15 @@
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20240067159</v>
+        <v>20240066137</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -6719,18 +6498,18 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
-      <c r="N74" t="n">
-        <v>20240067159</v>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6754,31 +6533,28 @@
         <v>0</v>
       </c>
       <c r="X74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20230028720</v>
+        <v>20240069492</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>E. coli, S.aureus</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>E COLI, S AUREUS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -6796,29 +6572,29 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
-      </c>
-      <c r="N75" t="n">
-        <v>20230028720</v>
+        <v>1</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>E. coli</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>E COLI</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -6839,27 +6615,24 @@
         <v>0</v>
       </c>
       <c r="X75" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20240046542</v>
+        <v>20240067159</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>P. aeruginosa</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>P AERUGINOSA</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -6869,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6887,20 +6660,20 @@
         <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>20240046542</v>
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Acintobacter spp.</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>ACINTOBACTER SPP</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -6924,31 +6697,28 @@
         <v>0</v>
       </c>
       <c r="X76" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20230137322</v>
+        <v>20230028720</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>A baumannii, S saprophyticus</t>
+          <t>E. coli, S.aureus</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>A BAUMANNII, S SAPROPHYTICUS</t>
+          <t>E COLI, S AUREUS</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -6957,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6966,26 +6736,26 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
-      <c r="N77" t="n">
-        <v>20230137322</v>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>E COLI</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -7010,48 +6780,45 @@
       </c>
       <c r="X77" t="n">
         <v>0</v>
-      </c>
-      <c r="Y77" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20240015478</v>
+        <v>20240046542</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>P mirabilis, S aureus, E.coli</t>
+          <t>P. aeruginosa</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>P MIRABILIS, S AUREUS, E COLI</t>
+          <t>P AERUGINOSA</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -7059,21 +6826,21 @@
       <c r="M78" t="n">
         <v>0</v>
       </c>
-      <c r="N78" t="n">
-        <v>20240015478</v>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Acintobacter spp.</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>E. coli</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>E COLI</t>
-        </is>
+          <t>ACINTOBACTER SPP</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R78" t="n">
         <v>0</v>
@@ -7094,27 +6861,24 @@
         <v>0</v>
       </c>
       <c r="X78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20240068424</v>
+        <v>20230137322</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>S aureus</t>
+          <t>A baumannii, S saprophyticus</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>S AUREUS</t>
+          <t>A BAUMANNII, S SAPROPHYTICUS</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -7127,7 +6891,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -7136,32 +6900,32 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
       </c>
-      <c r="N79" t="n">
-        <v>20240068424</v>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>KLEBSIELLA PNEUMONIAE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
       </c>
       <c r="R79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S79" t="n">
         <v>0</v>
@@ -7179,27 +6943,24 @@
         <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20240071058</v>
+        <v>20240015478</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>E.Coli, P mirabilis</t>
+          <t>P mirabilis, S aureus, E.coli</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>E COLI, P MIRABILIS</t>
+          <t>P MIRABILIS, S AUREUS, E COLI</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -7221,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7229,18 +6990,18 @@
       <c r="M80" t="n">
         <v>0</v>
       </c>
-      <c r="N80" t="n">
-        <v>20240071058</v>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>CONTAMINATION</t>
-        </is>
+          <t>E COLI</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -7264,34 +7025,31 @@
         <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20240074728</v>
+        <v>20240068424</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>E.coli and K.pneumoneae</t>
+          <t>S aureus</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>E COLI K PNEUMONEAE</t>
+          <t>S AUREUS</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -7306,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7314,21 +7072,21 @@
       <c r="M81" t="n">
         <v>0</v>
       </c>
-      <c r="N81" t="n">
-        <v>20240074728</v>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>Klebsiella pneumoniae</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Methicillin-resistant Staphylococcus aureus</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>METHICILLIN-RESISTANT STAPHYLOCOCCUS AUREUS</t>
-        </is>
+          <t>KLEBSIELLA PNEUMONIAE</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -7346,34 +7104,31 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20240074281</v>
+        <v>20240071058</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>E.Coli, P mirabilis</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>E COLI, P MIRABILIS</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -7385,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -7397,20 +7152,20 @@
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>20240074281</v>
+        <v>0</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Commensal Flora</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>COMMENSAL FLORA</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -7434,31 +7189,28 @@
         <v>0</v>
       </c>
       <c r="X82" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20240076716</v>
+        <v>20240074728</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>K pneumoniae, P mirabilis</t>
+          <t>E.coli and K.pneumoneae</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>K PNEUMONIAE, P MIRABILIS</t>
+          <t>E COLI K PNEUMONEAE</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>1</v>
@@ -7470,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -7484,18 +7236,18 @@
       <c r="M83" t="n">
         <v>0</v>
       </c>
-      <c r="N83" t="n">
-        <v>20240076716</v>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>Methicillin-resistant Staphylococcus aureus</t>
+        </is>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>METHICILLIN-RESISTANT STAPHYLOCOCCUS AUREUS</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -7513,33 +7265,30 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
       </c>
       <c r="X83" t="n">
         <v>0</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20240078762</v>
+        <v>20240074281</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>A. Baumannii</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>A BAUMANNII</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -7552,7 +7301,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7567,20 +7316,20 @@
         <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>20240078762</v>
+        <v>1</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Commensal Flora</t>
+        </is>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>COMMENSAL FLORA</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -7605,67 +7354,64 @@
       </c>
       <c r="X84" t="n">
         <v>0</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20240078772</v>
+        <v>20240076716</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>K pneumoniae, P mirabilis</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>K PNEUMONIAE, P MIRABILIS</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="n">
-        <v>20240078772</v>
-      </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -7689,74 +7435,71 @@
         <v>0</v>
       </c>
       <c r="X85" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20240062956</v>
+        <v>20240078762</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>K pneumoniae, P aeruginosa, P mirabilis, S.aureus, S. saprophyticus</t>
+          <t>A. Baumannii</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>K PNEUMONIAE, P AERUGINOSA, P MIRABILIS, S AUREUS, S SAPROPHYTICUS</t>
+          <t>A BAUMANNII</t>
         </is>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
-      <c r="N86" t="n">
-        <v>20240062956</v>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>K pneumoniae and P mirabilis</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>K PNEUMONIAE P MIRABILIS</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S86" t="n">
         <v>0</v>
@@ -7765,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="U86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V86" t="n">
         <v>0</v>
@@ -7774,31 +7517,28 @@
         <v>0</v>
       </c>
       <c r="X86" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20240088127</v>
+        <v>20240078772</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>E.coli</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>E COLI</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -7822,20 +7562,20 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
-        <v>20240088127</v>
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>CONTAMINATION</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -7859,71 +7599,68 @@
         <v>0</v>
       </c>
       <c r="X87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20240076818</v>
+        <v>20240062956</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>K pneumoniae, P aeruginosa, P mirabilis, S.aureus, S. saprophyticus</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>K PNEUMONIAE, P AERUGINOSA, P MIRABILIS, S AUREUS, S SAPROPHYTICUS</t>
         </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="n">
-        <v>20240076818</v>
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>K pneumoniae and P mirabilis</t>
+        </is>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>Contamination</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>CONTAMINATION</t>
-        </is>
+          <t>K PNEUMONIAE P MIRABILIS</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
       </c>
       <c r="Q88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -7932,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7944,31 +7681,28 @@
         <v>0</v>
       </c>
       <c r="X88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20240070348</v>
+        <v>20240088127</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>E.coli</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>E COLI</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -7992,26 +7726,26 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="n">
-        <v>20240070348</v>
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>KLEBSIELLA PNEUMONIAE</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
       </c>
       <c r="R89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S89" t="n">
         <v>0</v>
@@ -8029,18 +7763,15 @@
         <v>0</v>
       </c>
       <c r="X89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20240028527</v>
+        <v>20240076818</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -8079,18 +7810,18 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
-      <c r="N90" t="n">
-        <v>20240028527</v>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Contamination</t>
+        </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>Insignificant growth of colonizer</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>INSIGNIFICANT GROWTH OF COLONIZER</t>
-        </is>
+          <t>CONTAMINATION</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -8114,31 +7845,28 @@
         <v>0</v>
       </c>
       <c r="X90" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20230003855</v>
+        <v>20240070348</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>E COLI</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>0</v>
@@ -8162,23 +7890,23 @@
         <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
-      </c>
-      <c r="N91" t="n">
-        <v>20230003855</v>
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>Klebsiella pneumoniae</t>
+        </is>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>Not Sent for Culture</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>NOT SENT FOR CULTURE</t>
-        </is>
+          <t>KLEBSIELLA PNEUMONIAE</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -8199,27 +7927,24 @@
         <v>0</v>
       </c>
       <c r="X91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20240092861</v>
+        <v>20240028527</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>E. faecalis</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>E FAECALIS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -8238,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
@@ -8247,20 +7972,20 @@
         <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
-      </c>
-      <c r="N92" t="n">
-        <v>20240092861</v>
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>Insignificant growth of colonizer</t>
+        </is>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>E. faecalis</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>E FAECALIS</t>
-        </is>
+          <t>INSIGNIFICANT GROWTH OF COLONIZER</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -8278,55 +8003,52 @@
         <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
       </c>
       <c r="X92" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20240087671</v>
+        <v>20230003855</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>P mirabilis, P. aeruginosa, S.Aureus, E faecalis</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>P MIRABILIS, P AERUGINOSA, S AUREUS, E FAECALIS</t>
+          <t>E COLI</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -8334,18 +8056,18 @@
       <c r="M93" t="n">
         <v>0</v>
       </c>
-      <c r="N93" t="n">
-        <v>20240087671</v>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Not Sent for Culture</t>
+        </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>Insignificant growth gram positive cocci</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>INSIGNIFICANT GROWTH GRAM POSITIVE COCCI</t>
-        </is>
+          <t>NOT SENT FOR CULTURE</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -8369,31 +8091,28 @@
         <v>0</v>
       </c>
       <c r="X93" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20230121277</v>
+        <v>20240092861</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>E. coli and A.Baumini</t>
+          <t>E. faecalis</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>E COLI A BAUMINI</t>
+          <t>E FAECALIS</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -8408,7 +8127,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8419,18 +8138,18 @@
       <c r="M94" t="n">
         <v>0</v>
       </c>
-      <c r="N94" t="n">
-        <v>20230121277</v>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>E. faecalis</t>
+        </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Insignificant Gram negative bacilli</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
-        </is>
+          <t>E FAECALIS</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8445,7 +8164,7 @@
         <v>0</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V94" t="n">
         <v>0</v>
@@ -8454,68 +8173,65 @@
         <v>0</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20240094465</v>
+        <v>20240087671</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>E. coli, K pneumoniae, P mirabilis, S.aureus, S. saprophyticus, A baumanni</t>
+          <t>P mirabilis, P. aeruginosa, S.Aureus, E faecalis</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>E COLI, K PNEUMONIAE, P MIRABILIS, S AUREUS, S SAPROPHYTICUS, A BAUMANNI</t>
+          <t>P MIRABILIS, P AERUGINOSA, S AUREUS, E FAECALIS</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
       </c>
-      <c r="N95" t="n">
-        <v>20240094465</v>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>Insignificant growth gram positive cocci</t>
+        </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>Candida spp. and Insignificant gram negative bacilli</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>CANDIDA SPP INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
-        </is>
+          <t>INSIGNIFICANT GROWTH GRAM POSITIVE COCCI</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -8539,31 +8255,28 @@
         <v>0</v>
       </c>
       <c r="X95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20230156801</v>
+        <v>20230121277</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>E. coli and A.Baumini</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>E COLI A BAUMINI</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -8587,21 +8300,21 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="n">
-        <v>20230156801</v>
+        <v>0</v>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>Insignificant Gram negative bacilli</t>
+        </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Insignificant gram negative bacilli</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
           <t>INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
         </is>
       </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
@@ -8624,71 +8337,68 @@
         <v>0</v>
       </c>
       <c r="X96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20240053790</v>
+        <v>20240094465</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Escherichia coli, E faecalis</t>
+          <t>E. coli, K pneumoniae, P mirabilis, S.aureus, S. saprophyticus, A baumanni</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ESCHERICHIA COLI, E FAECALIS</t>
+          <t>E COLI, K PNEUMONIAE, P MIRABILIS, S AUREUS, S SAPROPHYTICUS, A BAUMANNI</t>
         </is>
       </c>
       <c r="E97" t="n">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
       </c>
-      <c r="N97" t="n">
-        <v>20240053790</v>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>Candida spp. and Insignificant gram negative bacilli</t>
+        </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>Escherichia coli</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>ESCHERICHIA COLI</t>
-        </is>
+          <t>CANDIDA SPP INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" t="n">
         <v>0</v>
@@ -8709,68 +8419,65 @@
         <v>0</v>
       </c>
       <c r="X97" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20240039512</v>
+        <v>20230156801</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>E. coli, K pneumoniae, A baumannii, S saprophyticus, E. faecalis</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>E COLI, K PNEUMONIAE, A BAUMANNII, S SAPROPHYTICUS, E FAECALIS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>20240039512</v>
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>Insignificant gram negative bacilli</t>
+        </is>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>INSIGNIFICANT GRAM NEGATIVE BACILLI</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>0</v>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -8795,30 +8502,27 @@
       </c>
       <c r="X98" t="n">
         <v>0</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20170059075</v>
+        <v>20240053790</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>Escherichia coli, E faecalis</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>ESCHERICHIA COLI, E FAECALIS</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -8833,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8842,20 +8546,20 @@
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="n">
-        <v>20170059075</v>
+        <v>0</v>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>Escherichia coli</t>
+        </is>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P99" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>ESCHERICHIA COLI</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -8880,67 +8584,64 @@
       </c>
       <c r="X99" t="n">
         <v>0</v>
-      </c>
-      <c r="Y99" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20210062776</v>
+        <v>20240039512</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>E. coli, K pneumoniae, A baumannii, S saprophyticus, E. faecalis</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>E COLI, K PNEUMONIAE, A BAUMANNII, S SAPROPHYTICUS, E FAECALIS</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>0</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="n">
-        <v>20210062776</v>
-      </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P100" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>0</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8964,18 +8665,15 @@
         <v>0</v>
       </c>
       <c r="X100" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20240043449</v>
+        <v>20170059075</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -9014,18 +8712,18 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
-      <c r="N101" t="n">
-        <v>20240043449</v>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -9049,18 +8747,15 @@
         <v>0</v>
       </c>
       <c r="X101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>20240076642</v>
+        <v>20210062776</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -9099,18 +8794,18 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
-      <c r="N102" t="n">
-        <v>20240076642</v>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -9134,18 +8829,15 @@
         <v>0</v>
       </c>
       <c r="X102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>107316668</v>
+        <v>20240043449</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -9184,18 +8876,18 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
-      <c r="N103" t="n">
-        <v>107316668</v>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -9219,18 +8911,15 @@
         <v>0</v>
       </c>
       <c r="X103" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>106105678</v>
+        <v>20240076642</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -9269,18 +8958,18 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
-      <c r="N104" t="n">
-        <v>106105678</v>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -9304,31 +8993,28 @@
         <v>0</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>20130627983</v>
+        <v>107316668</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>E COLI</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -9352,20 +9038,20 @@
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
-      </c>
-      <c r="N105" t="n">
-        <v>20130627983</v>
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>Insignificant count</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>INSIGNIFICANT COUNT</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -9389,18 +9075,15 @@
         <v>0</v>
       </c>
       <c r="X105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>105349965</v>
+        <v>106105678</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -9439,18 +9122,18 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
-      <c r="N106" t="n">
-        <v>105349965</v>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -9474,31 +9157,28 @@
         <v>0</v>
       </c>
       <c r="X106" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>107191161</v>
+        <v>20130627983</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sterile</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>STERILE</t>
+          <t>E COLI</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -9522,20 +9202,20 @@
         <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="n">
-        <v>107191161</v>
+        <v>0</v>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>Insignificant count</t>
+        </is>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>INSIGNIFICANT COUNT</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9560,26 +9240,23 @@
       </c>
       <c r="X107" t="n">
         <v>0</v>
-      </c>
-      <c r="Y107" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>106496785</v>
+        <v>105349965</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>S aureus and S saprophyticus</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>S AUREUS S SAPROPHYTICUS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -9601,26 +9278,26 @@
         <v>0</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
-        <v>106496785</v>
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -9644,18 +9321,15 @@
         <v>0</v>
       </c>
       <c r="X108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>107588621</v>
+        <v>107191161</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -9694,18 +9368,18 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
-      <c r="N109" t="n">
-        <v>107588621</v>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -9729,68 +9403,65 @@
         <v>0</v>
       </c>
       <c r="X109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>107159161</v>
+        <v>106496785</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>S aureus and S saprophyticus</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>S AUREUS S SAPROPHYTICUS</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="n">
-        <v>107159161</v>
-      </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -9814,31 +9485,28 @@
         <v>0</v>
       </c>
       <c r="X110" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>106037263</v>
+        <v>107588621</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>E. coli and E faecalis</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>E COLI E FAECALIS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
@@ -9853,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -9862,20 +9530,20 @@
         <v>0</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
-      </c>
-      <c r="N111" t="n">
-        <v>106037263</v>
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -9899,34 +9567,31 @@
         <v>0</v>
       </c>
       <c r="X111" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>105707937</v>
+        <v>107159161</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>K pneumoniae, P mirabilis and S aureus</t>
+          <t>Sterile</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>K PNEUMONIAE, P MIRABILIS S AUREUS</t>
+          <t>STERILE</t>
         </is>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112" t="n">
         <v>0</v>
@@ -9935,32 +9600,32 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
-      </c>
-      <c r="N112" t="n">
-        <v>105707937</v>
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
@@ -9984,31 +9649,28 @@
         <v>0</v>
       </c>
       <c r="X112" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>10749833</v>
+        <v>106037263</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>S saprophyticus</t>
+          <t>E. coli and E faecalis</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>S SAPROPHYTICUS</t>
+          <t>E COLI E FAECALIS</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
         <v>0</v>
@@ -10023,29 +9685,29 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
         <v>0</v>
       </c>
-      <c r="N113" t="n">
-        <v>10749833</v>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -10069,68 +9731,65 @@
         <v>0</v>
       </c>
       <c r="X113" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>106940756</v>
+        <v>105707937</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>K pneumoniae, P mirabilis and S aureus</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>K PNEUMONIAE, P MIRABILIS S AUREUS</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="n">
-        <v>106940756</v>
-      </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -10154,68 +9813,65 @@
         <v>0</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>107688917</v>
+        <v>10749833</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>S saprophyticus</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>S SAPROPHYTICUS</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="n">
-        <v>107688917</v>
-      </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -10239,18 +9895,15 @@
         <v>0</v>
       </c>
       <c r="X115" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>107656065</v>
+        <v>106940756</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -10289,18 +9942,18 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
-      <c r="N116" t="n">
-        <v>107656065</v>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -10324,18 +9977,15 @@
         <v>0</v>
       </c>
       <c r="X116" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y116" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>106765529</v>
+        <v>107688917</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -10374,18 +10024,18 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
-      <c r="N117" t="n">
-        <v>106765529</v>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -10409,18 +10059,15 @@
         <v>0</v>
       </c>
       <c r="X117" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y117" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>107677777</v>
+        <v>107656065</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -10459,18 +10106,18 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
-      <c r="N118" t="n">
-        <v>107677777</v>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Sterile</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -10494,94 +10141,252 @@
         <v>0</v>
       </c>
       <c r="X118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y118" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>106765529</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>107677777</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>Sterile</t>
+        </is>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
         <v>107579659</v>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>107579659</v>
-      </c>
-      <c r="O119" t="inlineStr">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr">
         <is>
           <t>Sterile</t>
         </is>
       </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>STERILE</t>
-        </is>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" t="n">
-        <v>0</v>
-      </c>
-      <c r="S119" t="n">
-        <v>0</v>
-      </c>
-      <c r="T119" t="n">
-        <v>0</v>
-      </c>
-      <c r="U119" t="n">
-        <v>0</v>
-      </c>
-      <c r="V119" t="n">
-        <v>0</v>
-      </c>
-      <c r="W119" t="n">
-        <v>0</v>
-      </c>
-      <c r="X119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y119" t="n">
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>STERILE</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
         <v>1</v>
       </c>
     </row>

--- a/URINELOT1.xlsx
+++ b/URINELOT1.xlsx
@@ -451,47 +451,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Escherichia coli_x</t>
+          <t>Escherichia coli_R</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae_x</t>
+          <t>Klebsiella pneumoniae_R</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa_x</t>
+          <t>Pseudomonas aeruginosa_R</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii_x</t>
+          <t>Acinetobacter baumannii_R</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Proteus mirabilis_x</t>
+          <t>Proteus mirabilis_R</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis_x</t>
+          <t>Enterococcus faecalis_R</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus aureus_x</t>
+          <t>Staphylococcus aureus_R</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus_x</t>
+          <t>Staphylococcus saprophyticus_R</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Sterile_x</t>
+          <t>Sterile_R</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -506,47 +506,47 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Escherichia coli_y</t>
+          <t>Escherichia coli_A</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Klebsiella pneumoniae_y</t>
+          <t>Klebsiella pneumoniae_A</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Pseudomonas aeruginosa_y</t>
+          <t>Pseudomonas aeruginosa_A</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Acinetobacter baumannii_y</t>
+          <t>Acinetobacter baumannii_A</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Proteus mirabilis_y</t>
+          <t>Proteus mirabilis_A</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Enterococcus faecalis_y</t>
+          <t>Enterococcus faecalis_A</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus aureus_y</t>
+          <t>Staphylococcus aureus_A</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Staphylococcus saprophyticus_y</t>
+          <t>Staphylococcus saprophyticus_A</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Sterile_y</t>
+          <t>Sterile_A</t>
         </is>
       </c>
     </row>
